--- a/file.xlsx
+++ b/file.xlsx
@@ -451,12 +451,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.easyfie.com/login</t>
+          <t>https://nextsocial.net/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.easyfie.com/create-blog/</t>
+          <t>Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="blog_title"]"}
+  (Session info: chrome=108.0.5359.125)
+Stac</t>
         </is>
       </c>
     </row>
